--- a/biology/Microbiologie/Herbaspirillum_canariense/Herbaspirillum_canariense.xlsx
+++ b/biology/Microbiologie/Herbaspirillum_canariense/Herbaspirillum_canariense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Noviherbaspirillum canariense est une espèce de bactéries gram-négatives de la famille des Oxalobacteraceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Décrite d'abord comme Herbaspirillim canariense, cette espèce a été renommée en Noviherbaspirillum canariense suite à des analyses phylogénétiques et à la création du genre Noviherbaspirillum[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrite d'abord comme Herbaspirillim canariense, cette espèce a été renommée en Noviherbaspirillum canariense suite à des analyses phylogénétiques et à la création du genre Noviherbaspirillum.
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,15 +584,86 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Noviherbaspirillum canariense (Carro et al. 2012) Lin et al. 2013[2].
-Noviherbaspirillum canariense a pour synonyme[2] :
-Herbaspirillum canariense Carro et al. 2012
-Étymologie
-L'étymologie de l'épithète spécifique est ca.na.ri.en’se. N.L. neut. adj. canariense, de ou appartenant aux Îles Canaries (Islas Canarias), où la souche type a été isolée[2].
-Phylogénie
-Les études phylogénétiques basées sur la séquence de l'ARN ribosomal 16S ont montré que la séquence de l'espèce H. canariense est à 96 % homologue à celle de la souche CC-AFH3, souche type de l'espèce Noviherbaspirillum malthae tout en formant un clade différent de celui des Herbaspirillum montrent qu'elles font probablement partie du même genre bactérien[1]. Noviherbaspirillum canariense forme aussi un sous-clade distinct comprenant les espèces N. soli et N. aurantiacum[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Noviherbaspirillum canariense (Carro et al. 2012) Lin et al. 2013.
+Noviherbaspirillum canariense a pour synonyme :
+Herbaspirillum canariense Carro et al. 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Herbaspirillum_canariense</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herbaspirillum_canariense</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de l'épithète spécifique est ca.na.ri.en’se. N.L. neut. adj. canariense, de ou appartenant aux Îles Canaries (Islas Canarias), où la souche type a été isolée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Herbaspirillum_canariense</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herbaspirillum_canariense</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les études phylogénétiques basées sur la séquence de l'ARN ribosomal 16S ont montré que la séquence de l'espèce H. canariense est à 96 % homologue à celle de la souche CC-AFH3, souche type de l'espèce Noviherbaspirillum malthae tout en formant un clade différent de celui des Herbaspirillum montrent qu'elles font probablement partie du même genre bactérien. Noviherbaspirillum canariense forme aussi un sous-clade distinct comprenant les espèces N. soli et N. aurantiacum.
 </t>
         </is>
       </c>
